--- a/Study plan/Statistics.xlsx
+++ b/Study plan/Statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\Documents\Pouya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Pouya\BD-And-Microservices\Study plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2E0CE-5863-452B-B501-BFFEDAE3619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C508700-9383-4E3D-8A27-AEF2C1D40DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="3240" windowWidth="38340" windowHeight="10185" xr2:uid="{CCA7CEBC-7415-400C-A7BD-323C6ECD14A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{CCA7CEBC-7415-400C-A7BD-323C6ECD14A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEA76C0-7C8D-4922-8340-6DA704D135C3}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/Study plan/Statistics.xlsx
+++ b/Study plan/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Pouya\BD-And-Microservices\Study plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C508700-9383-4E3D-8A27-AEF2C1D40DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778B64C2-7DA8-4760-A83F-BDAECC78BD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{CCA7CEBC-7415-400C-A7BD-323C6ECD14A5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Search</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Rating 2/4</t>
+  </si>
+  <si>
+    <t>extra Discussion</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,15 +903,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -916,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
@@ -924,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -932,12 +938,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -946,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>42</v>
       </c>
@@ -954,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
@@ -962,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
@@ -970,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
@@ -978,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
@@ -986,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -994,12 +1000,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
